--- a/Output/Share of Addresses.xlsx
+++ b/Output/Share of Addresses.xlsx
@@ -391,19 +391,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>39508</v>
+        <v>40969</v>
       </c>
       <c r="B2" t="n">
-        <v>47.02</v>
+        <v>47.32</v>
       </c>
       <c r="C2" t="n">
-        <v>29.89</v>
+        <v>29.58</v>
       </c>
       <c r="D2" t="n">
-        <v>13.57</v>
+        <v>13.64</v>
       </c>
       <c r="E2" t="n">
-        <v>9.34</v>
+        <v>9.27</v>
       </c>
       <c r="F2" t="n">
         <v>0.19</v>
@@ -411,19 +411,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>39600</v>
+        <v>41061</v>
       </c>
       <c r="B3" t="n">
-        <v>47.08</v>
+        <v>47.33</v>
       </c>
       <c r="C3" t="n">
-        <v>29.84</v>
+        <v>29.56</v>
       </c>
       <c r="D3" t="n">
-        <v>13.57</v>
+        <v>13.65</v>
       </c>
       <c r="E3" t="n">
-        <v>9.32</v>
+        <v>9.27</v>
       </c>
       <c r="F3" t="n">
         <v>0.19</v>
@@ -431,19 +431,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>39692</v>
+        <v>41153</v>
       </c>
       <c r="B4" t="n">
-        <v>47.1</v>
+        <v>47.35</v>
       </c>
       <c r="C4" t="n">
-        <v>29.82</v>
+        <v>29.55</v>
       </c>
       <c r="D4" t="n">
-        <v>13.58</v>
+        <v>13.65</v>
       </c>
       <c r="E4" t="n">
-        <v>9.31</v>
+        <v>9.26</v>
       </c>
       <c r="F4" t="n">
         <v>0.19</v>
@@ -451,19 +451,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>39783</v>
+        <v>41244</v>
       </c>
       <c r="B5" t="n">
-        <v>47.12</v>
+        <v>47.37</v>
       </c>
       <c r="C5" t="n">
-        <v>29.8</v>
+        <v>29.52</v>
       </c>
       <c r="D5" t="n">
-        <v>13.59</v>
+        <v>13.65</v>
       </c>
       <c r="E5" t="n">
-        <v>9.3</v>
+        <v>9.26</v>
       </c>
       <c r="F5" t="n">
         <v>0.19</v>
@@ -471,19 +471,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>39873</v>
+        <v>41334</v>
       </c>
       <c r="B6" t="n">
-        <v>47.13</v>
+        <v>47.4</v>
       </c>
       <c r="C6" t="n">
-        <v>29.79</v>
+        <v>29.5</v>
       </c>
       <c r="D6" t="n">
-        <v>13.59</v>
+        <v>13.65</v>
       </c>
       <c r="E6" t="n">
-        <v>9.3</v>
+        <v>9.26</v>
       </c>
       <c r="F6" t="n">
         <v>0.19</v>
@@ -491,19 +491,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>39965</v>
+        <v>41426</v>
       </c>
       <c r="B7" t="n">
-        <v>47.14</v>
+        <v>47.43</v>
       </c>
       <c r="C7" t="n">
-        <v>29.77</v>
+        <v>29.47</v>
       </c>
       <c r="D7" t="n">
-        <v>13.61</v>
+        <v>13.66</v>
       </c>
       <c r="E7" t="n">
-        <v>9.3</v>
+        <v>9.25</v>
       </c>
       <c r="F7" t="n">
         <v>0.19</v>
@@ -511,19 +511,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>40057</v>
+        <v>41518</v>
       </c>
       <c r="B8" t="n">
-        <v>47.15</v>
+        <v>47.47</v>
       </c>
       <c r="C8" t="n">
-        <v>29.75</v>
+        <v>29.44</v>
       </c>
       <c r="D8" t="n">
-        <v>13.62</v>
+        <v>13.66</v>
       </c>
       <c r="E8" t="n">
-        <v>9.29</v>
+        <v>9.24</v>
       </c>
       <c r="F8" t="n">
         <v>0.19</v>
@@ -531,339 +531,339 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>40148</v>
+        <v>41609</v>
       </c>
       <c r="B9" t="n">
-        <v>47.17</v>
+        <v>47.5</v>
       </c>
       <c r="C9" t="n">
-        <v>29.73</v>
+        <v>29.42</v>
       </c>
       <c r="D9" t="n">
-        <v>13.63</v>
+        <v>13.66</v>
       </c>
       <c r="E9" t="n">
-        <v>9.28</v>
+        <v>9.24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>40238</v>
+        <v>41699</v>
       </c>
       <c r="B10" t="n">
-        <v>47.19</v>
+        <v>47.53</v>
       </c>
       <c r="C10" t="n">
-        <v>29.71</v>
+        <v>29.4</v>
       </c>
       <c r="D10" t="n">
-        <v>13.63</v>
+        <v>13.65</v>
       </c>
       <c r="E10" t="n">
-        <v>9.28</v>
+        <v>9.23</v>
       </c>
       <c r="F10" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>40330</v>
+        <v>41791</v>
       </c>
       <c r="B11" t="n">
-        <v>47.19</v>
+        <v>47.56</v>
       </c>
       <c r="C11" t="n">
-        <v>29.71</v>
+        <v>29.37</v>
       </c>
       <c r="D11" t="n">
-        <v>13.62</v>
+        <v>13.65</v>
       </c>
       <c r="E11" t="n">
-        <v>9.28</v>
+        <v>9.23</v>
       </c>
       <c r="F11" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40422</v>
+        <v>41883</v>
       </c>
       <c r="B12" t="n">
-        <v>47.22</v>
+        <v>47.59</v>
       </c>
       <c r="C12" t="n">
-        <v>29.68</v>
+        <v>29.34</v>
       </c>
       <c r="D12" t="n">
-        <v>13.63</v>
+        <v>13.66</v>
       </c>
       <c r="E12" t="n">
-        <v>9.28</v>
+        <v>9.22</v>
       </c>
       <c r="F12" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>40513</v>
+        <v>41974</v>
       </c>
       <c r="B13" t="n">
-        <v>47.24</v>
+        <v>47.61</v>
       </c>
       <c r="C13" t="n">
-        <v>29.66</v>
+        <v>29.32</v>
       </c>
       <c r="D13" t="n">
-        <v>13.63</v>
+        <v>13.66</v>
       </c>
       <c r="E13" t="n">
-        <v>9.28</v>
+        <v>9.22</v>
       </c>
       <c r="F13" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>40603</v>
+        <v>42064</v>
       </c>
       <c r="B14" t="n">
-        <v>47.25</v>
+        <v>47.64</v>
       </c>
       <c r="C14" t="n">
-        <v>29.65</v>
+        <v>29.3</v>
       </c>
       <c r="D14" t="n">
-        <v>13.63</v>
+        <v>13.66</v>
       </c>
       <c r="E14" t="n">
-        <v>9.27</v>
+        <v>9.21</v>
       </c>
       <c r="F14" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>40695</v>
+        <v>42156</v>
       </c>
       <c r="B15" t="n">
-        <v>47.27</v>
+        <v>47.67</v>
       </c>
       <c r="C15" t="n">
-        <v>29.63</v>
+        <v>29.26</v>
       </c>
       <c r="D15" t="n">
-        <v>13.64</v>
+        <v>13.66</v>
       </c>
       <c r="E15" t="n">
-        <v>9.28</v>
+        <v>9.2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>40787</v>
+        <v>42248</v>
       </c>
       <c r="B16" t="n">
-        <v>47.28</v>
+        <v>47.71</v>
       </c>
       <c r="C16" t="n">
-        <v>29.61</v>
+        <v>29.23</v>
       </c>
       <c r="D16" t="n">
-        <v>13.64</v>
+        <v>13.67</v>
       </c>
       <c r="E16" t="n">
-        <v>9.28</v>
+        <v>9.2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>40878</v>
+        <v>42339</v>
       </c>
       <c r="B17" t="n">
-        <v>47.3</v>
+        <v>47.73</v>
       </c>
       <c r="C17" t="n">
-        <v>29.6</v>
+        <v>29.21</v>
       </c>
       <c r="D17" t="n">
-        <v>13.64</v>
+        <v>13.67</v>
       </c>
       <c r="E17" t="n">
-        <v>9.27</v>
+        <v>9.19</v>
       </c>
       <c r="F17" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>40969</v>
+        <v>42430</v>
       </c>
       <c r="B18" t="n">
-        <v>47.32</v>
+        <v>47.77</v>
       </c>
       <c r="C18" t="n">
-        <v>29.58</v>
+        <v>29.18</v>
       </c>
       <c r="D18" t="n">
-        <v>13.64</v>
+        <v>13.67</v>
       </c>
       <c r="E18" t="n">
-        <v>9.27</v>
+        <v>9.18</v>
       </c>
       <c r="F18" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>41061</v>
+        <v>42522</v>
       </c>
       <c r="B19" t="n">
-        <v>47.33</v>
+        <v>47.8</v>
       </c>
       <c r="C19" t="n">
-        <v>29.56</v>
+        <v>29.16</v>
       </c>
       <c r="D19" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="E19" t="n">
-        <v>9.27</v>
+        <v>9.18</v>
       </c>
       <c r="F19" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>41153</v>
+        <v>42614</v>
       </c>
       <c r="B20" t="n">
-        <v>47.35</v>
+        <v>47.83</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55</v>
+        <v>29.13</v>
       </c>
       <c r="D20" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="E20" t="n">
-        <v>9.26</v>
+        <v>9.17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>41244</v>
+        <v>42705</v>
       </c>
       <c r="B21" t="n">
-        <v>47.37</v>
+        <v>47.86</v>
       </c>
       <c r="C21" t="n">
-        <v>29.52</v>
+        <v>29.1</v>
       </c>
       <c r="D21" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="E21" t="n">
-        <v>9.26</v>
+        <v>9.17</v>
       </c>
       <c r="F21" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>41334</v>
+        <v>42795</v>
       </c>
       <c r="B22" t="n">
-        <v>47.4</v>
+        <v>47.9</v>
       </c>
       <c r="C22" t="n">
-        <v>29.5</v>
+        <v>29.07</v>
       </c>
       <c r="D22" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="E22" t="n">
-        <v>9.26</v>
+        <v>9.16</v>
       </c>
       <c r="F22" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>41426</v>
+        <v>42887</v>
       </c>
       <c r="B23" t="n">
-        <v>47.43</v>
+        <v>47.94</v>
       </c>
       <c r="C23" t="n">
-        <v>29.47</v>
+        <v>29.04</v>
       </c>
       <c r="D23" t="n">
-        <v>13.66</v>
+        <v>13.67</v>
       </c>
       <c r="E23" t="n">
-        <v>9.25</v>
+        <v>9.15</v>
       </c>
       <c r="F23" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>41518</v>
+        <v>42979</v>
       </c>
       <c r="B24" t="n">
-        <v>47.47</v>
+        <v>47.98</v>
       </c>
       <c r="C24" t="n">
-        <v>29.44</v>
+        <v>29.01</v>
       </c>
       <c r="D24" t="n">
-        <v>13.66</v>
+        <v>13.67</v>
       </c>
       <c r="E24" t="n">
-        <v>9.24</v>
+        <v>9.14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>41609</v>
+        <v>43070</v>
       </c>
       <c r="B25" t="n">
-        <v>47.5</v>
+        <v>48.01</v>
       </c>
       <c r="C25" t="n">
-        <v>29.42</v>
+        <v>28.99</v>
       </c>
       <c r="D25" t="n">
-        <v>13.66</v>
+        <v>13.67</v>
       </c>
       <c r="E25" t="n">
-        <v>9.24</v>
+        <v>9.14</v>
       </c>
       <c r="F25" t="n">
         <v>0.2</v>
@@ -871,19 +871,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>41699</v>
+        <v>43160</v>
       </c>
       <c r="B26" t="n">
-        <v>47.53</v>
+        <v>48.04</v>
       </c>
       <c r="C26" t="n">
-        <v>29.4</v>
+        <v>28.96</v>
       </c>
       <c r="D26" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="E26" t="n">
-        <v>9.23</v>
+        <v>9.13</v>
       </c>
       <c r="F26" t="n">
         <v>0.2</v>
@@ -891,19 +891,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>41791</v>
+        <v>43252</v>
       </c>
       <c r="B27" t="n">
-        <v>47.56</v>
+        <v>48.08</v>
       </c>
       <c r="C27" t="n">
-        <v>29.37</v>
+        <v>28.93</v>
       </c>
       <c r="D27" t="n">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="E27" t="n">
-        <v>9.23</v>
+        <v>9.12</v>
       </c>
       <c r="F27" t="n">
         <v>0.2</v>
@@ -911,19 +911,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>41883</v>
+        <v>43344</v>
       </c>
       <c r="B28" t="n">
-        <v>47.59</v>
+        <v>48.11</v>
       </c>
       <c r="C28" t="n">
-        <v>29.34</v>
+        <v>28.89</v>
       </c>
       <c r="D28" t="n">
-        <v>13.66</v>
+        <v>13.68</v>
       </c>
       <c r="E28" t="n">
-        <v>9.22</v>
+        <v>9.12</v>
       </c>
       <c r="F28" t="n">
         <v>0.2</v>
@@ -931,19 +931,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>41974</v>
+        <v>43435</v>
       </c>
       <c r="B29" t="n">
-        <v>47.61</v>
+        <v>48.14</v>
       </c>
       <c r="C29" t="n">
-        <v>29.32</v>
+        <v>28.87</v>
       </c>
       <c r="D29" t="n">
-        <v>13.66</v>
+        <v>13.68</v>
       </c>
       <c r="E29" t="n">
-        <v>9.22</v>
+        <v>9.11</v>
       </c>
       <c r="F29" t="n">
         <v>0.2</v>
@@ -951,19 +951,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>42064</v>
+        <v>43525</v>
       </c>
       <c r="B30" t="n">
-        <v>47.64</v>
+        <v>48.17</v>
       </c>
       <c r="C30" t="n">
-        <v>29.3</v>
+        <v>28.84</v>
       </c>
       <c r="D30" t="n">
-        <v>13.66</v>
+        <v>13.68</v>
       </c>
       <c r="E30" t="n">
-        <v>9.21</v>
+        <v>9.1</v>
       </c>
       <c r="F30" t="n">
         <v>0.2</v>
@@ -971,19 +971,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>42156</v>
+        <v>43617</v>
       </c>
       <c r="B31" t="n">
-        <v>47.67</v>
+        <v>48.22</v>
       </c>
       <c r="C31" t="n">
-        <v>29.26</v>
+        <v>28.81</v>
       </c>
       <c r="D31" t="n">
-        <v>13.66</v>
+        <v>13.68</v>
       </c>
       <c r="E31" t="n">
-        <v>9.2</v>
+        <v>9.1</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
@@ -991,19 +991,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>42248</v>
+        <v>43709</v>
       </c>
       <c r="B32" t="n">
-        <v>47.71</v>
+        <v>48.24</v>
       </c>
       <c r="C32" t="n">
-        <v>29.23</v>
+        <v>28.78</v>
       </c>
       <c r="D32" t="n">
-        <v>13.67</v>
+        <v>13.68</v>
       </c>
       <c r="E32" t="n">
-        <v>9.2</v>
+        <v>9.09</v>
       </c>
       <c r="F32" t="n">
         <v>0.2</v>
@@ -1011,19 +1011,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42339</v>
+        <v>43800</v>
       </c>
       <c r="B33" t="n">
-        <v>47.73</v>
+        <v>48.27</v>
       </c>
       <c r="C33" t="n">
-        <v>29.21</v>
+        <v>28.76</v>
       </c>
       <c r="D33" t="n">
-        <v>13.67</v>
+        <v>13.68</v>
       </c>
       <c r="E33" t="n">
-        <v>9.19</v>
+        <v>9.09</v>
       </c>
       <c r="F33" t="n">
         <v>0.2</v>
@@ -1031,19 +1031,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>42430</v>
+        <v>43891</v>
       </c>
       <c r="B34" t="n">
-        <v>47.77</v>
+        <v>48.31</v>
       </c>
       <c r="C34" t="n">
-        <v>29.18</v>
+        <v>28.73</v>
       </c>
       <c r="D34" t="n">
-        <v>13.67</v>
+        <v>13.68</v>
       </c>
       <c r="E34" t="n">
-        <v>9.18</v>
+        <v>9.08</v>
       </c>
       <c r="F34" t="n">
         <v>0.2</v>
@@ -1051,19 +1051,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42522</v>
+        <v>43983</v>
       </c>
       <c r="B35" t="n">
-        <v>47.8</v>
+        <v>48.33</v>
       </c>
       <c r="C35" t="n">
-        <v>29.16</v>
+        <v>28.71</v>
       </c>
       <c r="D35" t="n">
-        <v>13.67</v>
+        <v>13.68</v>
       </c>
       <c r="E35" t="n">
-        <v>9.18</v>
+        <v>9.08</v>
       </c>
       <c r="F35" t="n">
         <v>0.2</v>
@@ -1071,19 +1071,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42614</v>
+        <v>44075</v>
       </c>
       <c r="B36" t="n">
-        <v>47.83</v>
+        <v>48.37</v>
       </c>
       <c r="C36" t="n">
-        <v>29.13</v>
+        <v>28.66</v>
       </c>
       <c r="D36" t="n">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="E36" t="n">
-        <v>9.17</v>
+        <v>9.07</v>
       </c>
       <c r="F36" t="n">
         <v>0.2</v>
@@ -1091,19 +1091,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42705</v>
+        <v>44166</v>
       </c>
       <c r="B37" t="n">
-        <v>47.86</v>
+        <v>48.4</v>
       </c>
       <c r="C37" t="n">
-        <v>29.1</v>
+        <v>28.64</v>
       </c>
       <c r="D37" t="n">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="E37" t="n">
-        <v>9.17</v>
+        <v>9.06</v>
       </c>
       <c r="F37" t="n">
         <v>0.2</v>
@@ -1111,19 +1111,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42795</v>
+        <v>44256</v>
       </c>
       <c r="B38" t="n">
-        <v>47.9</v>
+        <v>48.43</v>
       </c>
       <c r="C38" t="n">
-        <v>29.07</v>
+        <v>28.6</v>
       </c>
       <c r="D38" t="n">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="E38" t="n">
-        <v>9.16</v>
+        <v>9.06</v>
       </c>
       <c r="F38" t="n">
         <v>0.2</v>
@@ -1131,19 +1131,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42887</v>
+        <v>44348</v>
       </c>
       <c r="B39" t="n">
-        <v>47.94</v>
+        <v>48.48</v>
       </c>
       <c r="C39" t="n">
-        <v>29.04</v>
+        <v>28.56</v>
       </c>
       <c r="D39" t="n">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="E39" t="n">
-        <v>9.15</v>
+        <v>9.05</v>
       </c>
       <c r="F39" t="n">
         <v>0.2</v>
@@ -1151,19 +1151,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>42979</v>
+        <v>44440</v>
       </c>
       <c r="B40" t="n">
-        <v>47.98</v>
+        <v>48.51</v>
       </c>
       <c r="C40" t="n">
-        <v>29.01</v>
+        <v>28.53</v>
       </c>
       <c r="D40" t="n">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="E40" t="n">
-        <v>9.14</v>
+        <v>9.05</v>
       </c>
       <c r="F40" t="n">
         <v>0.2</v>
@@ -1171,19 +1171,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43070</v>
+        <v>44531</v>
       </c>
       <c r="B41" t="n">
-        <v>48.01</v>
+        <v>48.55</v>
       </c>
       <c r="C41" t="n">
-        <v>28.99</v>
+        <v>28.5</v>
       </c>
       <c r="D41" t="n">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="E41" t="n">
-        <v>9.14</v>
+        <v>9.05</v>
       </c>
       <c r="F41" t="n">
         <v>0.2</v>
@@ -1191,19 +1191,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43160</v>
+        <v>44621</v>
       </c>
       <c r="B42" t="n">
-        <v>48.04</v>
+        <v>48.58</v>
       </c>
       <c r="C42" t="n">
-        <v>28.96</v>
+        <v>28.47</v>
       </c>
       <c r="D42" t="n">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="E42" t="n">
-        <v>9.13</v>
+        <v>9.05</v>
       </c>
       <c r="F42" t="n">
         <v>0.2</v>
@@ -1211,19 +1211,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>43252</v>
+        <v>44713</v>
       </c>
       <c r="B43" t="n">
-        <v>48.08</v>
+        <v>48.6</v>
       </c>
       <c r="C43" t="n">
-        <v>28.93</v>
+        <v>28.45</v>
       </c>
       <c r="D43" t="n">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="E43" t="n">
-        <v>9.12</v>
+        <v>9.05</v>
       </c>
       <c r="F43" t="n">
         <v>0.2</v>
@@ -1231,19 +1231,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43344</v>
+        <v>44805</v>
       </c>
       <c r="B44" t="n">
-        <v>48.11</v>
+        <v>48.62</v>
       </c>
       <c r="C44" t="n">
-        <v>28.89</v>
+        <v>28.42</v>
       </c>
       <c r="D44" t="n">
-        <v>13.68</v>
+        <v>13.71</v>
       </c>
       <c r="E44" t="n">
-        <v>9.12</v>
+        <v>9.05</v>
       </c>
       <c r="F44" t="n">
         <v>0.2</v>
@@ -1251,19 +1251,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43435</v>
+        <v>44896</v>
       </c>
       <c r="B45" t="n">
-        <v>48.14</v>
+        <v>48.63</v>
       </c>
       <c r="C45" t="n">
-        <v>28.87</v>
+        <v>28.4</v>
       </c>
       <c r="D45" t="n">
-        <v>13.68</v>
+        <v>13.71</v>
       </c>
       <c r="E45" t="n">
-        <v>9.11</v>
+        <v>9.05</v>
       </c>
       <c r="F45" t="n">
         <v>0.2</v>
@@ -1271,19 +1271,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>43525</v>
+        <v>44986</v>
       </c>
       <c r="B46" t="n">
-        <v>48.17</v>
+        <v>48.66</v>
       </c>
       <c r="C46" t="n">
-        <v>28.84</v>
+        <v>28.37</v>
       </c>
       <c r="D46" t="n">
-        <v>13.68</v>
+        <v>13.71</v>
       </c>
       <c r="E46" t="n">
-        <v>9.1</v>
+        <v>9.06</v>
       </c>
       <c r="F46" t="n">
         <v>0.2</v>
@@ -1291,19 +1291,19 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>43617</v>
+        <v>45078</v>
       </c>
       <c r="B47" t="n">
-        <v>48.22</v>
+        <v>48.69</v>
       </c>
       <c r="C47" t="n">
-        <v>28.81</v>
+        <v>28.34</v>
       </c>
       <c r="D47" t="n">
-        <v>13.68</v>
+        <v>13.71</v>
       </c>
       <c r="E47" t="n">
-        <v>9.1</v>
+        <v>9.06</v>
       </c>
       <c r="F47" t="n">
         <v>0.2</v>
@@ -1311,19 +1311,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43709</v>
+        <v>45170</v>
       </c>
       <c r="B48" t="n">
-        <v>48.24</v>
+        <v>48.7</v>
       </c>
       <c r="C48" t="n">
-        <v>28.78</v>
+        <v>28.32</v>
       </c>
       <c r="D48" t="n">
-        <v>13.68</v>
+        <v>13.72</v>
       </c>
       <c r="E48" t="n">
-        <v>9.09</v>
+        <v>9.06</v>
       </c>
       <c r="F48" t="n">
         <v>0.2</v>
@@ -1331,19 +1331,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43800</v>
+        <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>48.27</v>
+        <v>48.74</v>
       </c>
       <c r="C49" t="n">
-        <v>28.76</v>
+        <v>28.28</v>
       </c>
       <c r="D49" t="n">
-        <v>13.68</v>
+        <v>13.73</v>
       </c>
       <c r="E49" t="n">
-        <v>9.09</v>
+        <v>9.05</v>
       </c>
       <c r="F49" t="n">
         <v>0.2</v>
@@ -1351,19 +1351,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>43891</v>
+        <v>45352</v>
       </c>
       <c r="B50" t="n">
-        <v>48.31</v>
+        <v>48.75</v>
       </c>
       <c r="C50" t="n">
-        <v>28.73</v>
+        <v>28.26</v>
       </c>
       <c r="D50" t="n">
-        <v>13.68</v>
+        <v>13.73</v>
       </c>
       <c r="E50" t="n">
-        <v>9.08</v>
+        <v>9.06</v>
       </c>
       <c r="F50" t="n">
         <v>0.2</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>43983</v>
+        <v>45444</v>
       </c>
       <c r="B51" t="n">
-        <v>48.33</v>
+        <v>48.76</v>
       </c>
       <c r="C51" t="n">
-        <v>28.71</v>
+        <v>28.24</v>
       </c>
       <c r="D51" t="n">
-        <v>13.68</v>
+        <v>13.73</v>
       </c>
       <c r="E51" t="n">
-        <v>9.08</v>
+        <v>9.07</v>
       </c>
       <c r="F51" t="n">
         <v>0.2</v>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44075</v>
+        <v>45536</v>
       </c>
       <c r="B52" t="n">
-        <v>48.37</v>
+        <v>48.77</v>
       </c>
       <c r="C52" t="n">
-        <v>28.66</v>
+        <v>28.2</v>
       </c>
       <c r="D52" t="n">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="E52" t="n">
-        <v>9.07</v>
+        <v>9.08</v>
       </c>
       <c r="F52" t="n">
         <v>0.2</v>
@@ -1411,321 +1411,21 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44166</v>
+        <v>45627</v>
       </c>
       <c r="B53" t="n">
-        <v>48.4</v>
+        <v>48.79</v>
       </c>
       <c r="C53" t="n">
-        <v>28.64</v>
+        <v>28.19</v>
       </c>
       <c r="D53" t="n">
-        <v>13.7</v>
+        <v>13.74</v>
       </c>
       <c r="E53" t="n">
-        <v>9.06</v>
+        <v>9.08</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>44256</v>
-      </c>
-      <c r="B54" t="n">
-        <v>48.43</v>
-      </c>
-      <c r="C54" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D54" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>44348</v>
-      </c>
-      <c r="B55" t="n">
-        <v>48.48</v>
-      </c>
-      <c r="C55" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="D55" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B56" t="n">
-        <v>48.51</v>
-      </c>
-      <c r="C56" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="D56" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B57" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="C57" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D57" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E57" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>44621</v>
-      </c>
-      <c r="B58" t="n">
-        <v>48.58</v>
-      </c>
-      <c r="C58" t="n">
-        <v>28.47</v>
-      </c>
-      <c r="D58" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>44713</v>
-      </c>
-      <c r="B59" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C59" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="D59" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B60" t="n">
-        <v>48.62</v>
-      </c>
-      <c r="C60" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="D60" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E60" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B61" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="C61" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B62" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="C62" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="D62" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B63" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="C63" t="n">
-        <v>28.34</v>
-      </c>
-      <c r="D63" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B64" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C64" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="D64" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B65" t="n">
-        <v>48.74</v>
-      </c>
-      <c r="C65" t="n">
-        <v>28.28</v>
-      </c>
-      <c r="D65" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B66" t="n">
-        <v>48.75</v>
-      </c>
-      <c r="C66" t="n">
-        <v>28.26</v>
-      </c>
-      <c r="D66" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B67" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="C67" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="D67" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="E67" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B68" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="C68" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="E68" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F68" t="n">
         <v>0.2</v>
       </c>
     </row>
